--- a/DataAnalysis/DataSet_2024/UserComposition.xlsx
+++ b/DataAnalysis/DataSet_2024/UserComposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Toastmasters\My Toastmaster\20241106-Microsoft Toastmasters Club 2024 Data Analysis\DataAnalysis\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinglinyu/src/Github/MstmcAnalysis/DataAnalysis/DataSet_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69F18B-7726-4E72-A657-F2EDBA4DEEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609D82D-D81F-1843-9338-5A086C57448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="11260" windowWidth="29400" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,22 +380,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20240101</v>
       </c>
@@ -453,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20240331</v>
       </c>
@@ -482,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20240629</v>
       </c>
@@ -511,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20240927</v>
       </c>
@@ -538,6 +539,36 @@
       </c>
       <c r="I5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20241106</v>
+      </c>
+      <c r="B6">
+        <v>20241227</v>
+      </c>
+      <c r="C6">
+        <f>SUM(D6:I6)</f>
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
